--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
-    <sheet name="Creditos" sheetId="3" r:id="rId2"/>
-    <sheet name="TarjetasCredito" sheetId="4" r:id="rId3"/>
-    <sheet name="Listas" sheetId="2" r:id="rId4"/>
+    <sheet name="TarjetasCredito" sheetId="4" r:id="rId2"/>
+    <sheet name="Creditos" sheetId="3" r:id="rId3"/>
+    <sheet name="Inversiones" sheetId="6" r:id="rId4"/>
+    <sheet name="Eprepago" sheetId="5" r:id="rId5"/>
+    <sheet name="Crediagil" sheetId="7" r:id="rId6"/>
+    <sheet name="Listas" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -67,7 +70,7 @@
     <t>1037655531</t>
   </si>
   <si>
-    <t>userqa10</t>
+    <t>userrobot3</t>
   </si>
   <si>
     <t>1234</t>
@@ -94,13 +97,22 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Cuenta Corriente;Cuenta de Ahorro; Cuenta de Ahorro</t>
-  </si>
-  <si>
-    <t>406-140100-01;406-740100-05;406-740100-06</t>
-  </si>
-  <si>
-    <t>zrediseño12</t>
+    <t>Corriente;Adelanto;Ahorros;Ahorros</t>
+  </si>
+  <si>
+    <t>406-101390-08;406101390-09;406-701390-12;406-701390-13</t>
+  </si>
+  <si>
+    <t>creadoosp11</t>
+  </si>
+  <si>
+    <t>Personal American Express;Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard;Personal Mastercard;Personal Mastercard</t>
+  </si>
+  <si>
+    <t>*0350;*9056;*6269;*7757;*1597;*0606;*6095;*7287;*4452;*2390</t>
+  </si>
+  <si>
+    <t>usercdt66</t>
   </si>
   <si>
     <t>Prestamo Personal Ta;Prestamo Personal Ta</t>
@@ -109,10 +121,10 @@
     <t>29281005510;29281023970</t>
   </si>
   <si>
-    <t>Personal Visa;Personal Mastercard</t>
-  </si>
-  <si>
-    <t>*6401;*5365</t>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>5306950634968354</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -169,9 +181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -205,14 +217,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,10 +237,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,18 +277,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,29 +307,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -302,6 +323,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,31 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,6 +352,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -375,6 +387,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -387,175 +441,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,6 +596,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,35 +631,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,23 +653,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,149 +696,149 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1166,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1313,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1460,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1529,7 +1541,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1556,10 +1568,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1603,6 +1615,439 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D7"/>
@@ -1621,16 +2066,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1638,50 +2083,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Canales\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2079D3-7F20-4CED-BABA-A4F4C8496D19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -103,15 +109,6 @@
     <t>406-101390-08;406101390-09;406-701390-12;406-701390-13</t>
   </si>
   <si>
-    <t>creadoosp11</t>
-  </si>
-  <si>
-    <t>Personal American Express;Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard;Personal Mastercard;Personal Mastercard</t>
-  </si>
-  <si>
-    <t>*0350;*9056;*6269;*7757;*1597;*0606;*6095;*7287;*4452;*2390</t>
-  </si>
-  <si>
     <t>usercdt66</t>
   </si>
   <si>
@@ -173,19 +170,28 @@
   </si>
   <si>
     <t>Consultas</t>
+  </si>
+  <si>
+    <t>58156998</t>
+  </si>
+  <si>
+    <t>automata98</t>
+  </si>
+  <si>
+    <t>0260</t>
+  </si>
+  <si>
+    <t>Personal American Express;Personal Visa;Personal Mastercard</t>
+  </si>
+  <si>
+    <t>*4379;*2391;*0299</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,158 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,194 +247,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -595,254 +271,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -854,65 +288,22 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1170,26 +561,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1280,7 +671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1294,7 +685,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1309,34 +700,41 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1388,13 +786,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1405,13 +803,13 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="12" t="s">
@@ -1421,13 +819,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1441,7 +839,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1456,34 +854,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4 H3:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1541,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1568,13 +971,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1588,7 +991,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1603,34 +1006,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1717,7 +1125,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1731,7 +1139,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1746,34 +1154,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1858,13 +1271,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1878,7 +1291,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1893,34 +1306,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2007,7 +1425,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -2021,7 +1439,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -2036,46 +1454,51 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2083,54 +1506,54 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -97,12 +102,6 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Corriente;Adelanto;Ahorros;Ahorros</t>
-  </si>
-  <si>
-    <t>406-101390-08;406101390-09;406-701390-12;406-701390-13</t>
-  </si>
-  <si>
     <t>creadoosp11</t>
   </si>
   <si>
@@ -173,19 +172,31 @@
   </si>
   <si>
     <t>Consultas</t>
+  </si>
+  <si>
+    <t>1756</t>
+  </si>
+  <si>
+    <t>TRANSACCION EXITOSA</t>
+  </si>
+  <si>
+    <t>invictus10</t>
+  </si>
+  <si>
+    <t>22452521</t>
+  </si>
+  <si>
+    <t>406-125210-00;406-125210-01;406-125210-02;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
+  </si>
+  <si>
+    <t>Corriente;Corriente;Corriente;Ahorros;Ahorros;Ahorros;Ahorros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,158 +220,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,194 +252,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -595,254 +276,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -854,65 +293,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1170,19 +570,175 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="14" customWidth="1"/>
+    <col min="2" max="6" width="14.375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="30" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="17"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
@@ -1247,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1274,13 +830,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1294,7 +850,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1309,27 +865,32 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
@@ -1394,7 +955,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1421,13 +982,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="N2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1441,7 +1002,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1456,27 +1017,32 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
@@ -1541,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1567,14 +1133,10 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1588,7 +1150,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1603,27 +1165,32 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
@@ -1714,10 +1281,14 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1731,7 +1302,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1746,27 +1317,32 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
@@ -1857,14 +1433,10 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1878,7 +1450,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1893,170 +1465,32 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -2066,16 +1500,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2083,54 +1517,53 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
         <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmarioloperamurillo/Documents/ProyectosIntellij/AW1059001_NuevaAPPSucursalVirtualPersonas_Test/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1612D781-751C-F042-93DC-ED06B8F94834}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -112,15 +118,6 @@
     <t>*0350;*9056;*6269;*7757;*1597;*0606;*6095;*7287;*4452;*2390</t>
   </si>
   <si>
-    <t>usercdt66</t>
-  </si>
-  <si>
-    <t>Prestamo Personal Ta;Prestamo Personal Ta</t>
-  </si>
-  <si>
-    <t>29281005510;29281023970</t>
-  </si>
-  <si>
     <t>MasterCard</t>
   </si>
   <si>
@@ -173,19 +170,25 @@
   </si>
   <si>
     <t>Consultas</t>
+  </si>
+  <si>
+    <t>invictus12</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Ta</t>
+  </si>
+  <si>
+    <t>292810023955</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,158 +212,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,194 +244,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -595,254 +268,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -854,65 +285,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1170,26 +557,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1280,7 +667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1294,7 +681,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1309,34 +696,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1427,7 +819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1441,7 +833,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1456,34 +848,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1534,14 +931,14 @@
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
+      <c r="B2" s="11">
+        <v>22419862</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1556,7 +953,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>22</v>
@@ -1568,13 +965,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1588,7 +985,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1603,34 +1000,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:H4 J2:J4 I3:I4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1717,7 +1119,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1731,7 +1133,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1746,34 +1148,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1858,13 +1265,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1878,7 +1285,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1893,34 +1300,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -2007,7 +1419,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -2021,7 +1433,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -2036,46 +1448,51 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2083,54 +1500,53 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmarioloperamurillo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmarioloperamurillo/Documents/ProyectosIntellij/AW1059001_NuevaAPPSucursalVirtualPersonas_Test/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B9393E-15B9-F84F-B7BA-9AF287DF9387}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2A975F-C410-0141-9DEE-8E5C3548B3AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7700" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
     <t>Prestamo Personal Ta</t>
   </si>
   <si>
-    <t>292810023955</t>
+    <t>29281023955</t>
   </si>
 </sst>
 </file>
@@ -891,7 +891,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1034,7 +1034,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{688B3D4C-F3F9-0248-B3EA-00272EB901E0}">
           <x14:formula1>
-            <xm:f>[ConsultaSaldosConsolidados.xlsx]Listas!#REF!</xm:f>
+            <xm:f>Listas!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G2:H2 J2</xm:sqref>
         </x14:dataValidation>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -103,13 +103,13 @@
     <t>406-101390-08;406101390-09;406-701390-12;406-701390-13</t>
   </si>
   <si>
-    <t>creadoosp11</t>
-  </si>
-  <si>
-    <t>Personal American Express;Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard;Personal Mastercard;Personal Mastercard</t>
-  </si>
-  <si>
-    <t>*0350;*9056;*6269;*7757;*1597;*0606;*6095;*7287;*4452;*2390</t>
+    <t>userrobot1</t>
+  </si>
+  <si>
+    <t>Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard</t>
+  </si>
+  <si>
+    <t>*7826;*2736;*6392;*5880;*1389;*9802</t>
   </si>
   <si>
     <t>usercdt66</t>
@@ -181,9 +181,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,21 +217,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +253,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -252,113 +359,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -393,181 +393,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,30 +596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,6 +606,48 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -652,24 +670,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -680,165 +680,165 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Canales\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel.rios.cano/Documents/AW1059001_APPSucursalVirtualPersonas_Test/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2079D3-7F20-4CED-BABA-A4F4C8496D19}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4794B7-CECA-7440-A56E-D922E4C43504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -573,14 +573,14 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -721,19 +721,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="56.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -879,14 +879,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1031,14 +1031,14 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1179,14 +1179,14 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1331,14 +1331,14 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.08203125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.58203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1479,11 +1479,11 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -103,13 +103,13 @@
     <t>406-101390-08;406101390-09;406-701390-12;406-701390-13</t>
   </si>
   <si>
-    <t>userrobot1</t>
-  </si>
-  <si>
-    <t>Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard</t>
-  </si>
-  <si>
-    <t>*7826;*2736;*6392;*5880;*1389;*9802</t>
+    <t>eprepago88</t>
+  </si>
+  <si>
+    <t>Personal Visa;Personal Mastercard</t>
+  </si>
+  <si>
+    <t>*6457;*5434</t>
   </si>
   <si>
     <t>usercdt66</t>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>29281005510;29281023970</t>
+  </si>
+  <si>
+    <t>FIDUCUENTA;FIDUCUENTA</t>
+  </si>
+  <si>
+    <t>0072000300806;0245002001766</t>
   </si>
   <si>
     <t>MasterCard</t>
@@ -224,6 +230,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -234,6 +247,30 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,39 +282,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,8 +313,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,14 +352,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -339,26 +360,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -399,19 +405,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,31 +471,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,115 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,6 +602,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -615,25 +639,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,21 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -678,76 +699,61 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -756,34 +762,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,52 +799,52 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,8 +1331,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1619,8 +1625,8 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1714,8 +1720,12 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5"/>
@@ -1858,10 +1868,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2066,16 +2076,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2083,50 +2093,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmarioloperamurillo/Documents/ProyectosIntellij/AW1059001_NuevaAPPSucursalVirtualPersonas_Test/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2A975F-C410-0141-9DEE-8E5C3548B3AE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E0030A-CD50-2546-8374-21CF52F69664}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -178,34 +178,41 @@
     <t>22452521</t>
   </si>
   <si>
+    <t>invictus12</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Ta</t>
+  </si>
+  <si>
+    <t>29281023955</t>
+  </si>
+  <si>
     <t>406-125210-00;406-125210-01;406-125210-02;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
   </si>
   <si>
-    <t>Corriente;Corriente;Corriente;Ahorros;Ahorros;Ahorros;Ahorros</t>
-  </si>
-  <si>
-    <t>invictus12</t>
-  </si>
-  <si>
-    <t>0345</t>
-  </si>
-  <si>
-    <t>Prestamo Personal Ta</t>
-  </si>
-  <si>
-    <t>29281023955</t>
+    <t>Corriente;Corriente;Adelanto;Ahorros;Ahorros;Ahorros;Ahorros</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,27 +290,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -681,11 +690,11 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>50</v>
+      <c r="M2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -890,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -959,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>17</v>
@@ -974,7 +983,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>22</v>
@@ -986,10 +995,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14">

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -130,7 +130,7 @@
     <t>MasterCard</t>
   </si>
   <si>
-    <t>5306950634968354</t>
+    <t>*8354</t>
   </si>
   <si>
     <t>Orientacion</t>
@@ -216,6 +216,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -223,16 +230,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +266,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -274,26 +305,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,6 +328,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -322,49 +359,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -393,19 +393,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,102 +567,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -538,42 +574,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,11 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +621,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -638,23 +655,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,163 +699,152 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -857,9 +857,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
@@ -1235,10 +1235,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1295,7 +1295,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1331,7 +1331,7 @@
   <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -1382,10 +1382,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1442,7 +1442,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1529,10 +1529,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1589,7 +1589,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1676,10 +1676,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1736,7 +1736,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1773,7 +1773,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1823,10 +1823,10 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1883,7 +1883,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1917,10 +1917,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
@@ -1933,7 +1933,7 @@
     <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,14 +1970,8 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -2002,7 +1996,7 @@
       <c r="H2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2014,8 +2008,6 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="5"/>
@@ -2026,7 +2018,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel.rios.cano/Documents/AW1059001_APPSucursalVirtualPersonas_Test/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4794B7-CECA-7440-A56E-D922E4C43504}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8925786-9C1F-8743-934F-8FD2463756AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -181,10 +181,10 @@
     <t>0260</t>
   </si>
   <si>
-    <t>Personal American Express;Personal Visa;Personal Mastercard</t>
-  </si>
-  <si>
     <t>*4379;*2391;*0299</t>
+  </si>
+  <si>
+    <t>CREDIT_CARD;CREDIT_CARD;CREDIT_CARD</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -819,10 +819,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:14">

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel.rios.cano/Documents/AW1059001_APPSucursalVirtualPersonas_Test/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8925786-9C1F-8743-934F-8FD2463756AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C46F676-8E7A-F240-9FB5-CDCCBB88DC6E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -184,14 +184,14 @@
     <t>*4379;*2391;*0299</t>
   </si>
   <si>
-    <t>CREDIT_CARD;CREDIT_CARD;CREDIT_CARD</t>
+    <t>Personal American Express;Personal Visa;Personal Mastercard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -220,6 +220,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -276,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -291,6 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +729,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -818,7 +825,7 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="14" t="s">
         <v>52</v>
       </c>
       <c r="N2" s="3" t="s">

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosmarioloperamurillo/Documents/ProyectosIntellij/AW1059001_NuevaAPPSucursalVirtualPersonas_Test/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E0030A-CD50-2546-8374-21CF52F69664}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -190,16 +189,25 @@
     <t>29281023955</t>
   </si>
   <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>Corriente;Corriente;Adelanto;Ahorros;Ahorros;Ahorros;Ahorros</t>
+  </si>
+  <si>
     <t>406-125210-00;406-125210-01;406-125210-02;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
   </si>
   <si>
-    <t>Corriente;Corriente;Adelanto;Ahorros;Ahorros;Ahorros;Ahorros</t>
+    <t>FIDUCUENTA;FIDUCUENTA</t>
+  </si>
+  <si>
+    <t>0935000000538;0935000000832</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="12"/>
@@ -316,7 +324,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -588,24 +596,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="14" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="14" customWidth="1"/>
+    <col min="2" max="6" width="14.375" style="14" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="14" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="14" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="14" customWidth="1"/>
     <col min="13" max="13" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="92" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="91.5" style="14" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11" style="14"/>
   </cols>
   <sheetData>
@@ -694,7 +702,7 @@
         <v>55</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -731,7 +739,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -744,21 +752,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -883,7 +891,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -896,21 +904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1035,13 +1043,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>G3:J4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{688B3D4C-F3F9-0248-B3EA-00272EB901E0}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!#REF!</xm:f>
           </x14:formula1>
@@ -1054,21 +1062,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1119,6 +1130,158 @@
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="5"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
@@ -1152,8 +1315,12 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5"/>
@@ -1189,7 +1356,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1201,22 +1368,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1300,12 +1467,8 @@
       <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5"/>
@@ -1341,155 +1504,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1502,19 +1517,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -114,9 +114,6 @@
     <t>MasterCard</t>
   </si>
   <si>
-    <t>5306950634968354</t>
-  </si>
-  <si>
     <t>Orientacion</t>
   </si>
   <si>
@@ -202,6 +199,12 @@
   </si>
   <si>
     <t>0935000000538;0935000000832</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>*9344</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -666,13 +669,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -687,10 +690,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>23</v>
@@ -699,10 +702,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -755,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -907,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -976,7 +979,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>17</v>
@@ -991,7 +994,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>22</v>
@@ -1003,10 +1006,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1065,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1131,13 +1134,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1152,10 +1155,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>23</v>
@@ -1164,10 +1167,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1220,18 +1223,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="14" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1282,14 +1288,14 @@
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
+      <c r="B2" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
+      <c r="D2" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>
@@ -1300,14 +1306,14 @@
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
+      <c r="I2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>23</v>
@@ -1319,7 +1325,7 @@
         <v>28</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1331,7 +1337,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
+      <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1343,10 +1349,10 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
@@ -1360,7 +1366,7 @@
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
+          <xm:sqref>G2:G4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1534,16 +1540,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1551,50 +1557,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -204,7 +204,13 @@
     <t>1228</t>
   </si>
   <si>
-    <t>*9344</t>
+    <t>*7863</t>
+  </si>
+  <si>
+    <t>invictus11</t>
+  </si>
+  <si>
+    <t>1006061976</t>
   </si>
 </sst>
 </file>
@@ -1223,8 +1229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1289,13 +1295,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>17</v>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AUTOMATIZACION JAVA\PROYECTOS GRADLE\PROYECTOS NUEVA APP\AW1059001_APPSucursalVirtualPersonas_Test\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19785" activeTab="4"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -72,48 +67,96 @@
     <t>1</t>
   </si>
   <si>
+    <t>22452521</t>
+  </si>
+  <si>
+    <t>invictus10</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>4321</t>
+  </si>
+  <si>
+    <t>Acierto</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>1756</t>
+  </si>
+  <si>
+    <t>TRANSACCION EXITOSA</t>
+  </si>
+  <si>
+    <t>bolp</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Corriente;Corriente;Adelanto;Ahorros;Ahorros;Ahorros;Ahorros</t>
+  </si>
+  <si>
+    <t>406-125210-00;406-125210-01;406-125210-02;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
+  </si>
+  <si>
     <t>1037655531</t>
   </si>
   <si>
+    <t>creadoosp11</t>
+  </si>
+  <si>
+    <t>0369</t>
+  </si>
+  <si>
+    <t>NO ERROR</t>
+  </si>
+  <si>
+    <t>Personal American Express;Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard;Personal Mastercard;Personal Mastercard</t>
+  </si>
+  <si>
+    <t>*0350;*9056;*6269;*7757;*1597;*0606;*6095;*7287;*4452;*2390</t>
+  </si>
+  <si>
+    <t>invictus12</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Ta</t>
+  </si>
+  <si>
+    <t>29281023955</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>FIDUCUENTA;FIDUCUENTA</t>
+  </si>
+  <si>
+    <t>0935000000538;0935000000832</t>
+  </si>
+  <si>
+    <t>1006061976</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>*7806</t>
+  </si>
+  <si>
     <t>userrobot3</t>
   </si>
   <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>4321</t>
-  </si>
-  <si>
-    <t>Acierto</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>0369</t>
-  </si>
-  <si>
-    <t>NO ERROR</t>
-  </si>
-  <si>
-    <t>bolp</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>creadoosp11</t>
-  </si>
-  <si>
-    <t>Personal American Express;Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard;Personal Mastercard;Personal Mastercard</t>
-  </si>
-  <si>
-    <t>*0350;*9056;*6269;*7757;*1597;*0606;*6095;*7287;*4452;*2390</t>
-  </si>
-  <si>
-    <t>MasterCard</t>
-  </si>
-  <si>
     <t>Orientacion</t>
   </si>
   <si>
@@ -160,76 +203,24 @@
   </si>
   <si>
     <t>Consultas</t>
-  </si>
-  <si>
-    <t>1756</t>
-  </si>
-  <si>
-    <t>TRANSACCION EXITOSA</t>
-  </si>
-  <si>
-    <t>invictus10</t>
-  </si>
-  <si>
-    <t>22452521</t>
-  </si>
-  <si>
-    <t>invictus12</t>
-  </si>
-  <si>
-    <t>0345</t>
-  </si>
-  <si>
-    <t>Prestamo Personal Ta</t>
-  </si>
-  <si>
-    <t>29281023955</t>
-  </si>
-  <si>
-    <t>0410</t>
-  </si>
-  <si>
-    <t>Corriente;Corriente;Adelanto;Ahorros;Ahorros;Ahorros;Ahorros</t>
-  </si>
-  <si>
-    <t>406-125210-00;406-125210-01;406-125210-02;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
-  </si>
-  <si>
-    <t>FIDUCUENTA;FIDUCUENTA</t>
-  </si>
-  <si>
-    <t>0935000000538;0935000000832</t>
-  </si>
-  <si>
-    <t>1228</t>
-  </si>
-  <si>
-    <t>*7863</t>
-  </si>
-  <si>
-    <t>invictus11</t>
-  </si>
-  <si>
-    <t>1006061976</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,18 +235,169 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +422,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -304,45 +632,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -600,30 +1214,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="14" customWidth="1"/>
-    <col min="2" max="6" width="14.375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="14" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="30" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="91.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="14"/>
+    <col min="1" max="1" width="11.125" style="11" customWidth="1"/>
+    <col min="2" max="6" width="14.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="30" style="11" customWidth="1"/>
+    <col min="14" max="14" width="91.5" style="11" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -663,60 +1277,60 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="M2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -728,47 +1342,42 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="13"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="17"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
@@ -823,22 +1432,22 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -848,25 +1457,25 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -880,7 +1489,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -895,32 +1504,27 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
@@ -975,50 +1579,50 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="3">
         <v>22419862</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="17" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1032,7 +1636,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1047,48 +1651,40 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H2;J2">
+      <formula1>Listas!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:J4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:H2 J2</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="27.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1136,50 +1732,50 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1193,14 +1789,14 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1208,42 +1804,37 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="14" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1291,50 +1882,50 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>42</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1348,14 +1939,14 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1363,32 +1954,27 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
@@ -1443,22 +2029,22 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1468,21 +2054,21 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="18" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1496,7 +2082,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1511,32 +2097,27 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
@@ -1546,16 +2127,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1563,53 +2144,54 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -15,12 +20,18 @@
     <sheet name="Crediagil" sheetId="7" r:id="rId6"/>
     <sheet name="Listas" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -106,21 +117,12 @@
     <t>1037655531</t>
   </si>
   <si>
-    <t>creadoosp11</t>
-  </si>
-  <si>
     <t>0369</t>
   </si>
   <si>
     <t>NO ERROR</t>
   </si>
   <si>
-    <t>Personal American Express;Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard;Personal Mastercard;Personal Mastercard</t>
-  </si>
-  <si>
-    <t>*0350;*9056;*6269;*7757;*1597;*0606;*6095;*7287;*4452;*2390</t>
-  </si>
-  <si>
     <t>invictus12</t>
   </si>
   <si>
@@ -203,24 +205,30 @@
   </si>
   <si>
     <t>Consultas</t>
+  </si>
+  <si>
+    <t>pruebauser01</t>
+  </si>
+  <si>
+    <t>6789</t>
+  </si>
+  <si>
+    <t>Personal American Express;Personal American Express;Personal Visa</t>
+  </si>
+  <si>
+    <t>*8410;*3490;*6177</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,159 +253,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,194 +279,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -632,254 +303,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -897,62 +326,15 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1214,33 +596,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="11" customWidth="1"/>
-    <col min="2" max="6" width="14.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="11" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="11" customWidth="1"/>
     <col min="13" max="13" width="30" style="11" customWidth="1"/>
     <col min="14" max="14" width="91.5" style="11" customWidth="1"/>
     <col min="15" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
@@ -1328,7 +710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="6"/>
@@ -1342,7 +724,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -1357,37 +739,42 @@
       <c r="L4" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -1442,10 +829,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>18</v>
@@ -1457,10 +844,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>23</v>
@@ -1469,13 +856,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1489,7 +876,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1504,37 +891,32 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +971,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>17</v>
@@ -1604,10 +986,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>23</v>
@@ -1616,13 +998,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1636,7 +1018,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1651,43 +1033,32 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H2;J2">
-      <formula1>Listas!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="23.375" customWidth="1"/>
-    <col min="14" max="14" width="27.75" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -1757,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1769,13 +1140,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1789,7 +1160,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1804,40 +1175,45 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1881,12 +1257,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
@@ -1907,7 +1283,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1919,13 +1295,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1939,7 +1315,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1954,37 +1330,42 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2028,7 +1409,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -2039,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>17</v>
@@ -2054,10 +1435,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>23</v>
@@ -2068,7 +1449,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -2082,7 +1463,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -2097,101 +1478,105 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
-      <c r="B4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Listas" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -129,9 +128,6 @@
     <t>0345</t>
   </si>
   <si>
-    <t>Prestamo Personal Ta</t>
-  </si>
-  <si>
     <t>29281023955</t>
   </si>
   <si>
@@ -153,12 +149,6 @@
     <t>MasterCard</t>
   </si>
   <si>
-    <t>*7806</t>
-  </si>
-  <si>
-    <t>userrobot3</t>
-  </si>
-  <si>
     <t>Orientacion</t>
   </si>
   <si>
@@ -217,6 +207,12 @@
   </si>
   <si>
     <t>*8410;*3490;*6177</t>
+  </si>
+  <si>
+    <t>Prestamo personal ta</t>
+  </si>
+  <si>
+    <t>****9344</t>
   </si>
 </sst>
 </file>
@@ -760,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -829,10 +825,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>18</v>
@@ -856,10 +852,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -912,7 +908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -998,10 +996,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1128,7 +1126,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1140,10 +1138,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1197,7 +1195,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
@@ -1283,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1295,10 +1293,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1351,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1418,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>17</v>
@@ -1513,16 +1511,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1530,50 +1528,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2BE8E2-3D23-4565-BFE0-482275323DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" activeTab="5"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -107,12 +108,6 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>Corriente;Corriente;Adelanto;Ahorros;Ahorros;Ahorros;Ahorros</t>
-  </si>
-  <si>
-    <t>406-125210-00;406-125210-01;406-125210-02;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
-  </si>
-  <si>
     <t>1037655531</t>
   </si>
   <si>
@@ -128,9 +123,6 @@
     <t>0345</t>
   </si>
   <si>
-    <t>29281023955</t>
-  </si>
-  <si>
     <t>0410</t>
   </si>
   <si>
@@ -203,23 +195,32 @@
     <t>6789</t>
   </si>
   <si>
-    <t>Personal American Express;Personal American Express;Personal Visa</t>
-  </si>
-  <si>
-    <t>*8410;*3490;*6177</t>
-  </si>
-  <si>
-    <t>Prestamo personal ta</t>
-  </si>
-  <si>
-    <t>****9344</t>
+    <t>29281023955;29281024975</t>
+  </si>
+  <si>
+    <t>Prestamo personal ta;Prestamo personal ta</t>
+  </si>
+  <si>
+    <t>*9344</t>
+  </si>
+  <si>
+    <t>*8410;*3490;*6177;*7194;*4707;*2127</t>
+  </si>
+  <si>
+    <t>Corriente;Corriente;Adelanto;Corriente;Ahorros;Ahorros;Ahorros;Ahorros</t>
+  </si>
+  <si>
+    <t>406-125210-00;406-125210-01;406-125210-02;406-169940-01;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
+  </si>
+  <si>
+    <t>Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -328,13 +329,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -597,14 +601,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="11" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" style="11" customWidth="1"/>
@@ -618,7 +622,7 @@
     <col min="15" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
@@ -700,13 +704,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="6"/>
@@ -720,7 +724,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -740,7 +744,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -753,14 +757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
@@ -770,7 +774,7 @@
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -814,21 +818,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>18</v>
@@ -840,10 +844,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>23</v>
@@ -852,13 +856,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -872,7 +876,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -892,7 +896,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -905,16 +909,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -958,7 +962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -969,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>17</v>
@@ -984,10 +988,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>23</v>
@@ -996,13 +1000,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1016,7 +1020,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1036,14 +1040,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
@@ -1056,7 +1060,7 @@
     <col min="14" max="14" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -1126,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1138,13 +1142,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1158,7 +1162,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1178,7 +1182,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1191,14 +1195,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
@@ -1211,7 +1215,7 @@
     <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,12 +1259,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
@@ -1281,7 +1285,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1293,13 +1297,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1313,7 +1317,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1333,7 +1337,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1346,14 +1350,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
@@ -1363,7 +1367,7 @@
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1407,12 +1411,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
@@ -1433,10 +1437,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>23</v>
@@ -1447,7 +1451,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1461,7 +1465,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1481,7 +1485,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1494,14 +1498,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
@@ -1509,69 +1513,69 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2BE8E2-3D23-4565-BFE0-482275323DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -126,9 +125,6 @@
     <t>0410</t>
   </si>
   <si>
-    <t>FIDUCUENTA;FIDUCUENTA</t>
-  </si>
-  <si>
     <t>0935000000538;0935000000832</t>
   </si>
   <si>
@@ -198,9 +194,6 @@
     <t>29281023955;29281024975</t>
   </si>
   <si>
-    <t>Prestamo personal ta;Prestamo personal ta</t>
-  </si>
-  <si>
     <t>*9344</t>
   </si>
   <si>
@@ -214,13 +207,19 @@
   </si>
   <si>
     <t>Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard</t>
+  </si>
+  <si>
+    <t>Inversión;Inversión</t>
+  </si>
+  <si>
+    <t>Prestamo Personal Ta;Prestamo Personal Ta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,7 +328,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -601,14 +600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" style="11" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" style="11" customWidth="1"/>
@@ -622,7 +621,7 @@
     <col min="15" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
@@ -704,13 +703,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="6"/>
@@ -724,7 +723,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -744,7 +743,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -757,14 +756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
@@ -774,7 +773,7 @@
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -829,10 +828,10 @@
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>53</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>18</v>
@@ -856,13 +855,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -876,7 +875,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -896,7 +895,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -909,16 +908,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,7 +961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -1000,13 +999,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1020,7 +1019,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1040,14 +1039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
@@ -1060,7 +1059,7 @@
     <col min="14" max="14" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -1142,13 +1141,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1162,7 +1161,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1182,7 +1181,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1195,14 +1194,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
@@ -1215,7 +1214,7 @@
     <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,12 +1258,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
@@ -1285,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1297,13 +1296,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1317,7 +1316,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1337,7 +1336,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1350,14 +1349,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
     <col min="2" max="6" width="14.33203125" customWidth="1"/>
@@ -1367,7 +1366,7 @@
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1450,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1465,7 +1464,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1485,7 +1484,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1498,14 +1497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
@@ -1513,69 +1512,69 @@
     <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mruiz/Documents/ProyectosTODO1/bancolombia-app-personas-osp-tests-bdd-screen-play/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -21,16 +16,11 @@
     <sheet name="Listas" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -107,24 +97,45 @@
     <t>ACTIVO</t>
   </si>
   <si>
+    <t>Corriente;Corriente;Adelanto;Corriente;Ahorros;Ahorros;Ahorros;Ahorros</t>
+  </si>
+  <si>
+    <t>406-125210-00;406-125210-01;406-125210-02;406-169940-01;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
+  </si>
+  <si>
     <t>1037655531</t>
   </si>
   <si>
+    <t>6789</t>
+  </si>
+  <si>
     <t>0369</t>
   </si>
   <si>
     <t>NO ERROR</t>
   </si>
   <si>
-    <t>invictus12</t>
+    <t>Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard</t>
+  </si>
+  <si>
+    <t>*7806;*7767;*4895;*5950;*6318;*6682</t>
   </si>
   <si>
     <t>0345</t>
   </si>
   <si>
+    <t>Prestamo personal ta</t>
+  </si>
+  <si>
+    <t>29281023956</t>
+  </si>
+  <si>
     <t>0410</t>
   </si>
   <si>
+    <t>Inversión;Inversión</t>
+  </si>
+  <si>
     <t>0935000000538;0935000000832</t>
   </si>
   <si>
@@ -137,6 +148,9 @@
     <t>MasterCard</t>
   </si>
   <si>
+    <t>*9344</t>
+  </si>
+  <si>
     <t>Orientacion</t>
   </si>
   <si>
@@ -183,48 +197,24 @@
   </si>
   <si>
     <t>Consultas</t>
-  </si>
-  <si>
-    <t>pruebauser01</t>
-  </si>
-  <si>
-    <t>6789</t>
-  </si>
-  <si>
-    <t>29281023955;29281024975</t>
-  </si>
-  <si>
-    <t>*9344</t>
-  </si>
-  <si>
-    <t>*8410;*3490;*6177;*7194;*4707;*2127</t>
-  </si>
-  <si>
-    <t>Corriente;Corriente;Adelanto;Corriente;Ahorros;Ahorros;Ahorros;Ahorros</t>
-  </si>
-  <si>
-    <t>406-125210-00;406-125210-01;406-125210-02;406-169940-01;406-725210-11;406-725210-12;406-725210-13;406-725210-14</t>
-  </si>
-  <si>
-    <t>Personal American Express;Personal American Express;Personal Visa;Personal Visa;Personal Mastercard;Personal Mastercard</t>
-  </si>
-  <si>
-    <t>Inversión;Inversión</t>
-  </si>
-  <si>
-    <t>Prestamo Personal Ta;Prestamo Personal Ta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,8 +239,159 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,8 +416,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -299,12 +626,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -322,22 +891,66 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="Normal 2" xfId="32"/>
+    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -595,33 +1208,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="11" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.1666666666667" style="11" customWidth="1"/>
+    <col min="2" max="6" width="14.3333333333333" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="14.3333333333333" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.3333333333333" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.3333333333333" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.6666666666667" style="11" customWidth="1"/>
     <col min="13" max="13" width="30" style="11" customWidth="1"/>
     <col min="14" max="14" width="91.5" style="11" customWidth="1"/>
     <col min="15" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
@@ -703,13 +1316,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="6"/>
@@ -723,7 +1336,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -738,42 +1351,37 @@
       <c r="L4" s="13"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
+    <col min="2" max="6" width="14.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="22.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,21 +1425,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>18</v>
@@ -843,10 +1451,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>23</v>
@@ -855,13 +1463,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -875,7 +1483,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -890,34 +1498,29 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -972,7 +1575,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>17</v>
@@ -987,10 +1590,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>23</v>
@@ -999,13 +1602,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1019,7 +1622,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1035,31 +1638,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
+    <col min="2" max="6" width="14.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" customWidth="1"/>
+    <col min="8" max="9" width="14.3333333333333" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.3333333333333" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="23.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="27.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -1129,7 +1734,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1141,13 +1746,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1161,7 +1766,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1176,45 +1781,40 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
+    <col min="2" max="6" width="14.3333333333333" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="8" max="9" width="14.3333333333333" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.3333333333333" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="13.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,12 +1858,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
@@ -1284,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J2" s="18" t="s">
         <v>22</v>
@@ -1296,13 +1896,13 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1316,7 +1916,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1331,42 +1931,37 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
+    <col min="2" max="6" width="14.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="18.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="22.1666666666667" customWidth="1"/>
+    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1410,12 +2005,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>14</v>
@@ -1436,10 +2031,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="18" t="s">
         <v>23</v>
@@ -1450,7 +2045,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1464,7 +2059,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1479,105 +2074,101 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
+      <formula1>Listas!$A$2:$A$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Listas!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C9EB50-CFB1-499C-98AA-7F5B3842FBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -202,14 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,159 +239,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,194 +265,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -626,254 +289,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -891,66 +312,24 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="32"/>
-    <cellStyle name="20% - Accent5" xfId="33" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="34" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="35" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="36" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="38" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="39" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="40" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="43" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="46" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1208,27 +587,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" style="11" customWidth="1"/>
-    <col min="2" max="6" width="14.3333333333333" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="11" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.3333333333333" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.3333333333333" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.3333333333333" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.6666666666667" style="11" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="11" customWidth="1"/>
     <col min="13" max="13" width="30" style="11" customWidth="1"/>
     <col min="14" max="14" width="91.5" style="11" customWidth="1"/>
     <col min="15" max="16384" width="11" style="11"/>
@@ -1322,7 +701,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="6"/>
@@ -1336,7 +715,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -1351,34 +730,39 @@
       <c r="L4" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
-    <col min="2" max="6" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="18.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="22.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1469,7 +853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1483,7 +867,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1498,27 +882,32 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1608,7 +997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1622,7 +1011,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1638,30 +1027,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
-    <col min="2" max="6" width="14.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.3333333333333" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.3333333333333" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="23.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="27.6666666666667" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1752,7 +1139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1766,7 +1153,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1781,37 +1168,42 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
-    <col min="2" max="6" width="14.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.3333333333333" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.3333333333333" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="13.6666666666667" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1902,7 +1294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -1916,7 +1308,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1931,34 +1323,39 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="11.1666666666667" customWidth="1"/>
-    <col min="2" max="6" width="14.3333333333333" customWidth="1"/>
-    <col min="9" max="9" width="18.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="22.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="14.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1998,12 +1395,8 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="19" t="s">
@@ -2042,10 +1435,10 @@
       <c r="L2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -2059,7 +1452,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -2074,32 +1467,37 @@
       <c r="L4" s="5"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:J4">
-      <formula1>Listas!$A$2:$A$3</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="10.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="14.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="12.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2144,7 +1542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -2152,23 +1550,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\appOSP\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C9EB50-CFB1-499C-98AA-7F5B3842FBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -21,12 +20,12 @@
     <sheet name="Crediagil" sheetId="7" r:id="rId6"/>
     <sheet name="Listas" sheetId="2" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -203,12 +202,21 @@
   </si>
   <si>
     <t>Consultas</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>numeroProductos</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -294,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -311,7 +319,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -320,7 +327,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -592,28 +599,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="11" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="11" customWidth="1"/>
+    <col min="2" max="6" width="14.375" style="11" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="11" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="11" customWidth="1"/>
     <col min="13" max="13" width="30" style="11" customWidth="1"/>
-    <col min="14" max="14" width="91.5" style="11" customWidth="1"/>
-    <col min="15" max="16384" width="11" style="11"/>
+    <col min="14" max="14" width="104.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,66 +664,99 @@
       <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="17" t="s">
+      <c r="O1" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="13"/>
       <c r="B4" s="6"/>
       <c r="C4" s="13"/>
@@ -735,7 +776,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -748,21 +789,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -810,22 +851,22 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -840,10 +881,10 @@
       <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -887,7 +928,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -900,14 +941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -954,22 +995,22 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>22419862</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -984,16 +1025,16 @@
       <c r="J2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1031,24 +1072,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="23.375" customWidth="1"/>
+    <col min="14" max="14" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1096,40 +1137,40 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1173,7 +1214,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1186,24 +1227,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1251,46 +1292,46 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1328,7 +1369,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1341,21 +1382,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:N2"/>
+    <sheetView topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="6" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="6" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1395,26 +1436,26 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1429,14 +1470,14 @@
       <c r="J2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="5"/>
@@ -1472,7 +1513,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1485,19 +1526,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>1037655531</t>
-  </si>
-  <si>
-    <t>6789</t>
   </si>
   <si>
     <t>0369</t>
@@ -602,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
@@ -665,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -715,7 +712,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -753,7 +750,7 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -792,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -864,7 +861,7 @@
         <v>16</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>18</v>
@@ -876,10 +873,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>23</v>
@@ -888,10 +885,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1020,10 +1017,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>23</v>
@@ -1032,10 +1029,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1162,7 +1159,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>22</v>
@@ -1174,10 +1171,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1296,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>14</v>
@@ -1317,7 +1314,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="17" t="s">
         <v>22</v>
@@ -1329,10 +1326,10 @@
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>41</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1465,10 +1462,10 @@
         <v>20</v>
       </c>
       <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>23</v>
@@ -1543,16 +1540,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1560,50 +1557,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -787,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -801,9 +804,11 @@
     <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -846,8 +851,11 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -890,22 +898,52 @@
       <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -207,10 +207,10 @@
     <t>numeroProductos</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O3"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -753,7 +753,7 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -940,7 +940,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -977,15 +977,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1032,11 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -1072,22 +1079,52 @@
       <c r="N2" s="16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3">
+        <v>22419862</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1263,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1280,9 +1317,10 @@
     <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
     <col min="14" max="14" width="13.625" customWidth="1"/>
+    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,8 +1363,11 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
@@ -1369,22 +1410,52 @@
       <c r="N2" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O2" s="12"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -217,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +247,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -274,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -297,12 +304,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -313,7 +333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -322,8 +341,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,23 +626,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="11" customWidth="1"/>
-    <col min="2" max="6" width="14.375" style="11" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="30" style="11" customWidth="1"/>
-    <col min="14" max="14" width="104.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="11" style="11"/>
+    <col min="1" max="1" width="11.125" style="10" customWidth="1"/>
+    <col min="2" max="6" width="14.375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="30" style="10" customWidth="1"/>
+    <col min="14" max="14" width="104.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -658,117 +682,117 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -851,27 +875,27 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -886,10 +910,10 @@
       <c r="J2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -898,25 +922,25 @@
       <c r="N2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -931,15 +955,15 @@
       <c r="J3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="15" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1032,95 +1056,95 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>22419862</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="3">
         <v>22419862</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1145,26 +1169,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="10" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="13" width="23.375" customWidth="1"/>
     <col min="14" max="14" width="27.625" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,42 +1232,45 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="18" t="s">
+      <c r="O1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1251,29 +1279,59 @@
       <c r="N2" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" s="10" customFormat="1">
+      <c r="A3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1282,7 +1340,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1302,7 +1360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1310,9 +1368,9 @@
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="11" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
+    <col min="8" max="9" width="14.375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="10" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
     <col min="13" max="13" width="10.375" customWidth="1"/>
@@ -1363,95 +1421,95 @@
       <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="16" t="s">
         <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="12"/>
+      <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="M3" s="3"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="17"/>
+      <c r="O3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1462,7 +1520,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1489,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1503,9 +1561,10 @@
     <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1539,29 +1598,32 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="M1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="21"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1576,30 +1638,60 @@
       <c r="J2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="M2" s="11"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" s="10" customFormat="1">
+      <c r="A3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
@@ -1623,7 +1715,7 @@
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
+          <xm:sqref>G2:J2 G4:J4 G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -211,13 +211,28 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>recaudosnatik66</t>
+  </si>
+  <si>
+    <t>928155899</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>*9870;*4547;*5434</t>
+  </si>
+  <si>
+    <t>Empresarial American Express;Personal Visa;Personal Mastercard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,6 +265,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,11 +341,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,8 +372,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -814,10 +843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -968,22 +997,56 @@
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="A4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1172,7 +1235,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1549,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -150,9 +150,6 @@
     <t>MasterCard</t>
   </si>
   <si>
-    <t>*9344</t>
-  </si>
-  <si>
     <t>Orientacion</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>Empresarial American Express;Personal Visa;Personal Mastercard</t>
+  </si>
+  <si>
+    <t>*7848</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -768,7 +768,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -806,7 +806,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -845,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -905,7 +905,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -955,7 +955,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>27</v>
@@ -993,21 +993,21 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>17</v>
@@ -1034,10 +1034,10 @@
         <v>24</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O4" s="11"/>
     </row>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1170,7 +1170,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3">
         <v>22419862</v>
@@ -1296,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1346,7 +1346,7 @@
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -1384,7 +1384,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1485,7 +1485,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1529,13 +1529,13 @@
         <v>40</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
@@ -1665,7 +1665,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N1" s="21"/>
       <c r="O1" s="5"/>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1">
       <c r="A3" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -1804,16 +1804,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1821,50 +1821,50 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="4"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -225,7 +225,19 @@
     <t>Empresarial American Express;Personal Visa;Personal Mastercard</t>
   </si>
   <si>
-    <t>*7848</t>
+    <t>*1488</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>22468280</t>
+  </si>
+  <si>
+    <t>pruebauser01</t>
+  </si>
+  <si>
+    <t>*8410;*3490;*6177;*7194;*4707;*2127</t>
   </si>
 </sst>
 </file>
@@ -845,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -857,6 +869,7 @@
     <col min="10" max="10" width="22.125" customWidth="1"/>
     <col min="11" max="11" width="14.375" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="104.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="33.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1040,6 +1053,51 @@
         <v>64</v>
       </c>
       <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="11"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="25"/>
@@ -1054,7 +1112,7 @@
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:J4</xm:sqref>
+          <xm:sqref>G2:J5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1423,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
     <sheet name="TarjetasCredito" sheetId="4" r:id="rId2"/>
-    <sheet name="Creditos" sheetId="3" r:id="rId3"/>
-    <sheet name="Inversiones" sheetId="6" r:id="rId4"/>
-    <sheet name="Eprepago" sheetId="5" r:id="rId5"/>
-    <sheet name="Crediagil" sheetId="7" r:id="rId6"/>
-    <sheet name="Listas" sheetId="2" r:id="rId7"/>
+    <sheet name="Ecard" sheetId="8" r:id="rId3"/>
+    <sheet name="Creditos" sheetId="3" r:id="rId4"/>
+    <sheet name="Inversiones" sheetId="6" r:id="rId5"/>
+    <sheet name="Eprepago" sheetId="5" r:id="rId6"/>
+    <sheet name="Crediagil" sheetId="7" r:id="rId7"/>
+    <sheet name="Listas" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -238,6 +239,33 @@
   </si>
   <si>
     <t>*8410;*3490;*6177;*7194;*4707;*2127</t>
+  </si>
+  <si>
+    <t>usuarioecard54</t>
+  </si>
+  <si>
+    <t>e-card Mastercard</t>
+  </si>
+  <si>
+    <t>*7371</t>
+  </si>
+  <si>
+    <t>deudaPesos</t>
+  </si>
+  <si>
+    <t>deudaDolares</t>
+  </si>
+  <si>
+    <t>$ 459.409,00</t>
+  </si>
+  <si>
+    <t>USD 42,00</t>
+  </si>
+  <si>
+    <t>numeroTarjeta</t>
+  </si>
+  <si>
+    <t>tipoTarjeta</t>
   </si>
 </sst>
 </file>
@@ -264,14 +292,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,7 +386,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -388,6 +416,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -855,10 +885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1099,8 +1129,8 @@
       </c>
       <c r="O5" s="11"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="25"/>
+    <row r="10" spans="1:15">
+      <c r="B10" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1122,6 +1152,137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="13" max="13" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Listas!$A$2:$A$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:J2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1288,7 +1449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1477,7 +1638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1666,7 +1827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -1844,7 +2005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>numeroProductos</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>8</t>
@@ -386,7 +383,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -418,6 +415,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -848,7 +846,7 @@
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
       <c r="O3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -887,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -997,17 +995,17 @@
       <c r="O2" s="11"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>27</v>
+      <c r="B3" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
+      <c r="D3" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>17</v>
@@ -1035,22 +1033,22 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="15" t="s">
-        <v>59</v>
+      <c r="O3" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>17</v>
@@ -1077,25 +1075,25 @@
         <v>24</v>
       </c>
       <c r="M4" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N4" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>17</v>
@@ -1125,7 +1123,7 @@
         <v>30</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="11"/>
     </row>
@@ -1154,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1202,16 +1200,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1219,13 +1217,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>17</v>
@@ -1252,16 +1250,16 @@
         <v>24</v>
       </c>
       <c r="M2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>73</v>
-      </c>
       <c r="O2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1748,7 +1746,7 @@
         <v>40</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O2" s="11"/>
     </row>

--- a/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
+++ b/APP_PERSONAS/src/test/resources/datadriven/consultas/saldos/ConsultaSaldosConsolidados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\TODO1\OSP_NEW\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProyectosBCO\bancolombia-app-personas-osp-tests-bdd-screen-play\APP_PERSONAS\src\test\resources\datadriven\consultas\saldos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB89D72-67A1-4DA4-9A3C-F4FB2B25BB55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14305" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Depositos" sheetId="1" r:id="rId1"/>
@@ -223,9 +224,6 @@
     <t>Empresarial American Express;Personal Visa;Personal Mastercard</t>
   </si>
   <si>
-    <t>*1488</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -263,12 +261,15 @@
   </si>
   <si>
     <t>tipoTarjeta</t>
+  </si>
+  <si>
+    <t>*1826</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -418,9 +419,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,25 +693,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="10" customWidth="1"/>
-    <col min="2" max="6" width="14.375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="10" customWidth="1"/>
-    <col min="12" max="12" width="14.625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="10" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="10" customWidth="1"/>
     <col min="13" max="13" width="30" style="10" customWidth="1"/>
-    <col min="14" max="14" width="104.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="104.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="11" style="10"/>
   </cols>
   <sheetData>
@@ -869,7 +870,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -882,24 +883,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="104.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="104.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -999,13 +1000,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>17</v>
@@ -1084,16 +1085,16 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>68</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>17</v>
@@ -1123,7 +1124,7 @@
         <v>30</v>
       </c>
       <c r="N5" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O5" s="11"/>
     </row>
@@ -1136,7 +1137,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1149,17 +1150,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.3"/>
   <cols>
-    <col min="13" max="13" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1200,16 +1201,16 @@
         <v>11</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1217,13 +1218,13 @@
         <v>14</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>17</v>
@@ -1250,16 +1251,16 @@
         <v>24</v>
       </c>
       <c r="M2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="30" t="s">
-        <v>72</v>
-      </c>
       <c r="O2" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="30" t="s">
         <v>75</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1268,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1280,17 +1281,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="14" max="14" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1448,24 +1449,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="23.375" customWidth="1"/>
-    <col min="14" max="14" width="27.625" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" customWidth="1"/>
     <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1624,7 +1625,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1637,25 +1638,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="10" customWidth="1"/>
-    <col min="8" max="9" width="14.375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="20.375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="10.375" customWidth="1"/>
-    <col min="14" max="14" width="13.625" customWidth="1"/>
-    <col min="15" max="15" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="10" customWidth="1"/>
+    <col min="8" max="9" width="14.33203125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1746,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="O2" s="11"/>
     </row>
@@ -1813,7 +1814,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -1826,22 +1827,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="6" width="14.375" customWidth="1"/>
-    <col min="9" max="9" width="18.375" customWidth="1"/>
-    <col min="10" max="10" width="22.125" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="12" max="12" width="14.625" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="6" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1991,7 +1992,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$A$2:$A$3</xm:f>
           </x14:formula1>
@@ -2004,19 +2005,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.3"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
